--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd9.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7517265</v>
+        <v>0.976531</v>
       </c>
       <c r="N2">
-        <v>1.503453</v>
+        <v>1.953062</v>
       </c>
       <c r="O2">
-        <v>0.3430414969595709</v>
+        <v>0.3681359341666424</v>
       </c>
       <c r="P2">
-        <v>0.2862361877440628</v>
+        <v>0.3330144816631303</v>
       </c>
       <c r="Q2">
-        <v>0.4837926328129999</v>
+        <v>0.6284712638353332</v>
       </c>
       <c r="R2">
-        <v>2.902755796878</v>
+        <v>3.770827583012</v>
       </c>
       <c r="S2">
-        <v>0.3430414969595709</v>
+        <v>0.3681359341666424</v>
       </c>
       <c r="T2">
-        <v>0.2862361877440628</v>
+        <v>0.3330144816631303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>0.777787</v>
       </c>
       <c r="O3">
-        <v>0.1183112992982128</v>
+        <v>0.09773758465004194</v>
       </c>
       <c r="P3">
-        <v>0.1480796444962971</v>
+        <v>0.1326196171188222</v>
       </c>
       <c r="Q3">
         <v>0.1668548425957778</v>
@@ -641,10 +641,10 @@
         <v>1.501693583362</v>
       </c>
       <c r="S3">
-        <v>0.1183112992982128</v>
+        <v>0.09773758465004194</v>
       </c>
       <c r="T3">
-        <v>0.1480796444962971</v>
+        <v>0.1326196171188222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1423686666666667</v>
+        <v>0.127556</v>
       </c>
       <c r="N4">
-        <v>0.427106</v>
+        <v>0.382668</v>
       </c>
       <c r="O4">
-        <v>0.06496825711674592</v>
+        <v>0.04808648902959583</v>
       </c>
       <c r="P4">
-        <v>0.08131494180570706</v>
+        <v>0.06524830531189832</v>
       </c>
       <c r="Q4">
-        <v>0.09162496210622222</v>
+        <v>0.08209189521866667</v>
       </c>
       <c r="R4">
-        <v>0.8246246589559999</v>
+        <v>0.738827056968</v>
       </c>
       <c r="S4">
-        <v>0.06496825711674592</v>
+        <v>0.04808648902959583</v>
       </c>
       <c r="T4">
-        <v>0.08131494180570706</v>
+        <v>0.06524830531189832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5698544999999999</v>
+        <v>1.116584</v>
       </c>
       <c r="N5">
-        <v>1.139709</v>
+        <v>2.233168</v>
       </c>
       <c r="O5">
-        <v>0.260046360916035</v>
+        <v>0.420933584203191</v>
       </c>
       <c r="P5">
-        <v>0.2169844746045257</v>
+        <v>0.380775051681252</v>
       </c>
       <c r="Q5">
-        <v>0.3667442997889999</v>
+        <v>0.7186059199946666</v>
       </c>
       <c r="R5">
-        <v>2.200465798734</v>
+        <v>4.311635519968</v>
       </c>
       <c r="S5">
-        <v>0.260046360916035</v>
+        <v>0.420933584203191</v>
       </c>
       <c r="T5">
-        <v>0.2169844746045257</v>
+        <v>0.380775051681252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2970403333333334</v>
+        <v>0.03536566666666666</v>
       </c>
       <c r="N6">
-        <v>0.8911210000000001</v>
+        <v>0.106097</v>
       </c>
       <c r="O6">
-        <v>0.1355508427653364</v>
+        <v>0.01333226772704545</v>
       </c>
       <c r="P6">
-        <v>0.1696568352044773</v>
+        <v>0.01809048430670052</v>
       </c>
       <c r="Q6">
-        <v>0.1911678315384444</v>
+        <v>0.02276047071355555</v>
       </c>
       <c r="R6">
-        <v>1.720510483846</v>
+        <v>0.204844236422</v>
       </c>
       <c r="S6">
-        <v>0.1355508427653364</v>
+        <v>0.01333226772704545</v>
       </c>
       <c r="T6">
-        <v>0.1696568352044773</v>
+        <v>0.01809048430670052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.171105</v>
+        <v>0.137338</v>
       </c>
       <c r="N7">
-        <v>0.513315</v>
+        <v>0.412014</v>
       </c>
       <c r="O7">
-        <v>0.07808174294409918</v>
+        <v>0.05177414022348326</v>
       </c>
       <c r="P7">
-        <v>0.09772791614493011</v>
+        <v>0.07025205991819664</v>
       </c>
       <c r="Q7">
-        <v>0.11011895741</v>
+        <v>0.08838734912933331</v>
       </c>
       <c r="R7">
-        <v>0.9910706166899999</v>
+        <v>0.7954861421639999</v>
       </c>
       <c r="S7">
-        <v>0.07808174294409918</v>
+        <v>0.05177414022348326</v>
       </c>
       <c r="T7">
-        <v>0.09772791614493011</v>
+        <v>0.07025205991819664</v>
       </c>
     </row>
   </sheetData>
